--- a/data/trans_camb/LAWTONB_2R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R2-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 8,46</t>
+          <t>-4,95; 8,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 4,22</t>
+          <t>-7,62; 4,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 16,44</t>
+          <t>2,55; 16,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 11,23</t>
+          <t>-0,24; 11,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 9,81</t>
+          <t>-3,22; 9,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,63; 22,72</t>
+          <t>13,02; 23,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 8,2</t>
+          <t>-0,91; 8,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 5,83</t>
+          <t>-3,46; 5,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,09; 19,09</t>
+          <t>11,08; 19,2</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 33,64</t>
+          <t>-15,59; 33,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 17,41</t>
+          <t>-24,42; 18,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,95; 65,83</t>
+          <t>7,74; 62,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 35,35</t>
+          <t>-0,66; 35,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 31,15</t>
+          <t>-8,33; 28,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,24; 71,08</t>
+          <t>32,57; 70,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 27,42</t>
+          <t>-2,47; 26,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 18,61</t>
+          <t>-9,82; 17,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,41; 61,59</t>
+          <t>31,52; 64,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 11,68</t>
+          <t>-9,73; 11,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 4,4</t>
+          <t>-14,85; 3,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 7,71</t>
+          <t>-9,85; 7,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 18,15</t>
+          <t>-11,75; 18,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 20,6</t>
+          <t>-6,67; 18,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,25; 4,15</t>
+          <t>-30,98; 4,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 10,28</t>
+          <t>-7,71; 10,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 9,02</t>
+          <t>-6,64; 9,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 4,13</t>
+          <t>-16,24; 3,84</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 113,19</t>
+          <t>-44,17; 111,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,09; 46,05</t>
+          <t>-60,76; 36,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,36; 74,63</t>
+          <t>-39,5; 72,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 126,21</t>
+          <t>-41,26; 128,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 160,11</t>
+          <t>-23,02; 146,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,02; 25,85</t>
+          <t>-83,93; 29,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 73,18</t>
+          <t>-32,62; 75,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 62,92</t>
+          <t>-27,44; 77,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-65,86; 25,41</t>
+          <t>-68,4; 23,16</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-38,32; -2,79</t>
+          <t>-38,77; -0,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 3,25</t>
+          <t>-32,95; 3,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,81; 3,22</t>
+          <t>-29,28; 2,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-47,58; 4,55</t>
+          <t>-48,99; 4,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,04; 6,27</t>
+          <t>-44,66; 6,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,31; -2,47</t>
+          <t>-45,85; -4,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-35,14; -3,98</t>
+          <t>-34,35; -2,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 1,4</t>
+          <t>-31,09; 0,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-29,41; -3,32</t>
+          <t>-29,44; -3,73</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 29,59</t>
+          <t>-100,0; 24,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-87,65; 40,11</t>
+          <t>-88,35; 43,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,35; 27,17</t>
+          <t>-71,8; 24,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-87,99; 28,61</t>
+          <t>-89,37; 29,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,0; 30,58</t>
+          <t>-80,98; 30,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,05; -7,1</t>
+          <t>-72,25; -12,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-85,26; -6,74</t>
+          <t>-84,86; -3,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,11; 8,13</t>
+          <t>-73,45; 6,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,61; -12,32</t>
+          <t>-66,66; -18,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,95</t>
+          <t>-4,59; 6,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,3; -0,72</t>
+          <t>-9,94; -0,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 3,05</t>
+          <t>-5,89; 3,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 9,32</t>
+          <t>-1,23; 9,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 6,76</t>
+          <t>-4,06; 6,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 8,44</t>
+          <t>-17,8; 8,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 6,37</t>
+          <t>-2,09; 5,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 2,05</t>
+          <t>-5,6; 1,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 4,33</t>
+          <t>-13,17; 4,37</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 26,14</t>
+          <t>-16,17; 27,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,27; -2,85</t>
+          <t>-33,87; -1,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 12,72</t>
+          <t>-20,24; 15,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 29,91</t>
+          <t>-3,35; 30,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 21,18</t>
+          <t>-11,11; 19,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,72; 25,14</t>
+          <t>-48,38; 26,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 22,05</t>
+          <t>-5,99; 20,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 6,82</t>
+          <t>-16,87; 7,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 14,27</t>
+          <t>-39,64; 14,45</t>
         </is>
       </c>
     </row>
